--- a/2018-2019 2nd semester.xlsx
+++ b/2018-2019 2nd semester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\MySchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F70DD0-4FF8-419F-B3BF-9322890AD11C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1469FE5-D93B-426F-9EAC-4700AA71129F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="90">
   <si>
     <t/>
   </si>
@@ -238,44 +238,78 @@
     <t>答辩</t>
   </si>
   <si>
-    <t xml:space="preserve">1-电工技术与电子技术C(56/3.5)(220160/刘锐/讲师)_x000D_
+    <t>1南-407*</t>
+  </si>
+  <si>
+    <t>主楼-507*</t>
+  </si>
+  <si>
+    <t>主楼-511*</t>
+  </si>
+  <si>
+    <t>理论课程</t>
+  </si>
+  <si>
+    <t>实验课程</t>
+  </si>
+  <si>
+    <t>开会/活动/冲突</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>监考/巡考/答疑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>1南-208*</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M3M4</t>
+  </si>
+  <si>
+    <t>DG1</t>
+  </si>
+  <si>
+    <t>DG2</t>
+  </si>
+  <si>
+    <t>DG1,2</t>
+  </si>
+  <si>
+    <t>DG3</t>
+  </si>
+  <si>
+    <t>DG3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-电工技术与电子技术C(56/3.5)(220160/刘锐/讲师)_x000D_
 材料2017-1班;材料2017-2班;材料2017-3班_x000D_
 2-通信原理A(64/4.0)(220160/刘锐/讲师)_x000D_
 信息2016-01班;信息2016-02班_x000D_
-</t>
-  </si>
-  <si>
-    <t>1南-407*</t>
-  </si>
-  <si>
-    <t>主楼-507*</t>
-  </si>
-  <si>
-    <t>主楼-511*</t>
-  </si>
-  <si>
-    <t>理论课程</t>
-  </si>
-  <si>
-    <t>实验课程</t>
-  </si>
-  <si>
-    <t>开会/活动/冲突</t>
+M3--信息17-1
+M4--信息17-2
+M7--自动化17-3
+DG1--材料17-1
+DG2--材料17-2
+DG3--材料17-3</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>监考/巡考/答疑</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -289,6 +323,7 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -327,8 +362,124 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF435369"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF435369"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF435369"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF435369"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,8 +516,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBED7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7CAAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE598"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9DC3E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B083"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9C9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD865"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FABDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5C9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7B30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4473C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -404,11 +741,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF5C9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFADCDEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF5C9BD5"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF5C9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -419,12 +1004,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -437,27 +1046,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - 着色 1 2" xfId="2" xr:uid="{6065B834-9BE2-4490-937D-B256367F549E}"/>
+    <cellStyle name="20% - 着色 2 2" xfId="3" xr:uid="{0C0575E9-6824-42A4-868F-A5EC8116A7D0}"/>
+    <cellStyle name="20% - 着色 3 2" xfId="4" xr:uid="{CEFABB29-6347-49DD-BEC7-AF566BE4F86B}"/>
+    <cellStyle name="20% - 着色 4 2" xfId="5" xr:uid="{EF05FB92-5989-49F9-9DAC-D6E3E5124083}"/>
+    <cellStyle name="20% - 着色 5 2" xfId="6" xr:uid="{D9E3A1CF-485B-4D38-AC6A-83B7AD3BF789}"/>
+    <cellStyle name="20% - 着色 6 2" xfId="7" xr:uid="{249AA146-CD1B-4C40-85BB-A17817CF9050}"/>
+    <cellStyle name="40% - 着色 1 2" xfId="8" xr:uid="{84CBAF28-8FBC-4389-A0B2-131229801D88}"/>
+    <cellStyle name="40% - 着色 2 2" xfId="9" xr:uid="{2DBF46F0-5359-4BA5-8733-8F8876957385}"/>
+    <cellStyle name="40% - 着色 3 2" xfId="10" xr:uid="{238B80BB-CDA9-40AF-B60E-88E59DC1C8BB}"/>
+    <cellStyle name="40% - 着色 4 2" xfId="11" xr:uid="{2673F153-0A72-4646-9B06-D41AC0B696D7}"/>
+    <cellStyle name="40% - 着色 5 2" xfId="12" xr:uid="{939A542A-570A-4943-BBDF-6E611A3DC144}"/>
+    <cellStyle name="40% - 着色 6 2" xfId="13" xr:uid="{E4E39365-6FF2-40B8-9C6C-4112E350D28E}"/>
+    <cellStyle name="60% - 着色 1 2" xfId="14" xr:uid="{99DB72B4-FD4A-4311-BBC8-945B26FC690C}"/>
+    <cellStyle name="60% - 着色 2 2" xfId="15" xr:uid="{7876A2B8-DD98-4996-8877-B3DC2C479741}"/>
+    <cellStyle name="60% - 着色 3 2" xfId="16" xr:uid="{500F9FD4-B414-430E-A4EC-8E3BEBA1E0A3}"/>
+    <cellStyle name="60% - 着色 4 2" xfId="17" xr:uid="{70FE1B5A-BA2C-4502-BE60-EFEEE087C6F0}"/>
+    <cellStyle name="60% - 着色 5 2" xfId="18" xr:uid="{97185815-26A6-4DCB-A44E-B7AB32BD902E}"/>
+    <cellStyle name="60% - 着色 6 2" xfId="19" xr:uid="{A8059EED-7E0B-4566-AA95-F5C7EEF66C58}"/>
+    <cellStyle name="标题 1 2" xfId="21" xr:uid="{2E41E60D-8A38-4110-B6B0-853231766DC2}"/>
+    <cellStyle name="标题 2 2" xfId="22" xr:uid="{E9651803-C898-4883-B0F4-1D08B6D7671C}"/>
+    <cellStyle name="标题 3 2" xfId="23" xr:uid="{976A3C99-C9D1-4F06-9357-0735ABF0428F}"/>
+    <cellStyle name="标题 4 2" xfId="24" xr:uid="{83B5296B-547B-41DC-AE24-0131AE0E31E5}"/>
+    <cellStyle name="标题 5" xfId="20" xr:uid="{33B3A713-8DCA-4CE7-8C70-14ABE538DC15}"/>
+    <cellStyle name="差 2" xfId="25" xr:uid="{A0A66B00-C0A1-403A-8B04-2FFDB5342255}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{EE59C65E-6224-440E-A887-F55971EFF321}"/>
+    <cellStyle name="好 2" xfId="26" xr:uid="{49750D8B-DAC5-493A-B925-51F4369FF9FC}"/>
+    <cellStyle name="汇总 2" xfId="27" xr:uid="{442C8BC2-9B65-4206-9DB0-1737533E9266}"/>
+    <cellStyle name="计算 2" xfId="28" xr:uid="{5E74AF11-3F00-4A89-A307-A4FD179A1C3E}"/>
+    <cellStyle name="检查单元格 2" xfId="29" xr:uid="{E778EEDD-679E-4C2D-B9D8-11022DFBC981}"/>
+    <cellStyle name="解释性文本 2" xfId="30" xr:uid="{8C3B8147-567A-4472-8092-5D17AAC1E397}"/>
+    <cellStyle name="警告文本 2" xfId="31" xr:uid="{D48730BA-E940-4CAD-BAB9-F502D413F08A}"/>
+    <cellStyle name="链接单元格 2" xfId="32" xr:uid="{5B811425-21D0-4B16-84D5-D6D58AA39838}"/>
+    <cellStyle name="适中 2" xfId="33" xr:uid="{8DE0BEFB-2DAD-4B84-B7B8-A39FDC9A5698}"/>
+    <cellStyle name="输出 2" xfId="34" xr:uid="{23EAAC19-2791-48FF-9832-3BC61C5B8905}"/>
+    <cellStyle name="输入 2" xfId="35" xr:uid="{31CF5BC2-3636-4CE6-9D1E-B9B77F5C6DF0}"/>
+    <cellStyle name="着色 1 2" xfId="36" xr:uid="{A5A9CDBC-F5F2-4E92-89BC-7E911FE2188B}"/>
+    <cellStyle name="着色 2 2" xfId="37" xr:uid="{C3E43B6F-6EDC-4ACD-A706-91C2E68AC455}"/>
+    <cellStyle name="着色 3 2" xfId="38" xr:uid="{2B507769-CF3B-4FE8-BC08-6EC52C5A4F41}"/>
+    <cellStyle name="着色 4 2" xfId="39" xr:uid="{27D26259-DF5E-4F7F-B6CF-8A24995DBA60}"/>
+    <cellStyle name="着色 5 2" xfId="40" xr:uid="{66F30146-E1CF-40B6-B98D-3546F22C965A}"/>
+    <cellStyle name="着色 6 2" xfId="41" xr:uid="{FCBC76AA-B2D9-4561-839D-F2CCB77E68FD}"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{A4E25324-AF74-4167-AFF1-42AFF7E592CF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -772,74 +1426,78 @@
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" activeCellId="7" sqref="C5:M5 D8:L8 D17:K17 C24:K24 D26:K26 C31:G31 J31:L31 M17"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="22" width="6" customWidth="1"/>
+    <col min="2" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="6" customWidth="1"/>
     <col min="23" max="23" width="17" customWidth="1"/>
     <col min="24" max="24" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
     </row>
     <row r="2" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="9" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
     </row>
     <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -990,154 +1648,186 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>64</v>
+      <c r="D5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="13" t="s">
         <v>71</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" s="6" t="s">
         <v>72</v>
       </c>
+      <c r="X5" s="14" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="E6" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="4"/>
+      <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="E7" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="4"/>
+      <c r="X7" s="13"/>
     </row>
     <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="15" t="s">
+      <c r="E8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>64</v>
       </c>
       <c r="M8" s="1"/>
@@ -1146,19 +1836,19 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="X8" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="X8" s="13"/>
     </row>
     <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1172,23 +1862,25 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="13" t="s">
         <v>0</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="4"/>
+      <c r="X9" s="13"/>
     </row>
     <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1202,23 +1894,23 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="13" t="s">
         <v>0</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="4"/>
+      <c r="X10" s="13"/>
     </row>
     <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1226,14 +1918,24 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="4" t="s">
+      <c r="E11" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>68</v>
       </c>
       <c r="M11" s="1"/>
@@ -1247,23 +1949,23 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="4"/>
+      <c r="X11" s="13"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="4" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
@@ -1277,10 +1979,10 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="4"/>
+      <c r="X12" s="13"/>
     </row>
     <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
@@ -1293,7 +1995,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
@@ -1307,10 +2009,10 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="4"/>
+      <c r="X13" s="13"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
@@ -1323,7 +2025,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M14" s="1"/>
@@ -1337,10 +2039,10 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="4"/>
+      <c r="X14" s="13"/>
     </row>
     <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
@@ -1353,7 +2055,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M15" s="1"/>
@@ -1367,10 +2069,10 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="4"/>
+      <c r="X15" s="13"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
@@ -1383,7 +2085,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M16" s="1"/>
@@ -1397,44 +2099,44 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="4"/>
+      <c r="X16" s="13"/>
     </row>
     <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="15" t="s">
+      <c r="E17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>65</v>
       </c>
       <c r="N17" s="1"/>
@@ -1447,12 +2149,12 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="X17" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="X17" s="13"/>
     </row>
     <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1465,7 +2167,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M18" s="1"/>
@@ -1479,10 +2181,10 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="4"/>
+      <c r="X18" s="13"/>
     </row>
     <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1495,7 +2197,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M19" s="1"/>
@@ -1509,23 +2211,41 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="4"/>
+      <c r="X19" s="13"/>
     </row>
     <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="4" t="s">
+      <c r="C20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M20" s="1"/>
@@ -1538,11 +2258,13 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="4"/>
+      <c r="W20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X20" s="13"/>
     </row>
     <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
@@ -1555,7 +2277,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M21" s="1"/>
@@ -1569,10 +2291,10 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="4"/>
+      <c r="X21" s="13"/>
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
@@ -1585,7 +2307,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M22" s="1"/>
@@ -1599,10 +2321,10 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="4"/>
+      <c r="X22" s="13"/>
     </row>
     <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1617,7 +2339,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
@@ -1631,41 +2353,41 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="4"/>
+      <c r="X23" s="13"/>
     </row>
     <row r="24" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="4" t="s">
+      <c r="D24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M24" s="1"/>
@@ -1679,12 +2401,12 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X24" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="X24" s="13"/>
     </row>
     <row r="25" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1697,7 +2419,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M25" s="1"/>
@@ -1711,39 +2433,39 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="4"/>
+      <c r="X25" s="13"/>
     </row>
     <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" s="4" t="s">
+      <c r="E26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M26" s="1"/>
@@ -1757,25 +2479,31 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="X26" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="X26" s="13"/>
     </row>
     <row r="27" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="4" t="s">
+      <c r="E27" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="23"/>
+      <c r="L27" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M27" s="1"/>
@@ -1789,23 +2517,23 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="4"/>
+      <c r="X27" s="13"/>
     </row>
     <row r="28" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="4" t="s">
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="1"/>
@@ -1819,10 +2547,10 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="4"/>
+      <c r="X28" s="13"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1833,10 +2561,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="13" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="1"/>
@@ -1846,7 +2574,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="13" t="s">
         <v>70</v>
       </c>
       <c r="R29" s="1"/>
@@ -1855,10 +2583,10 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="4"/>
+      <c r="X29" s="13"/>
     </row>
     <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1867,10 +2595,10 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="H30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J30" s="1"/>
@@ -1880,7 +2608,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R30" s="1"/>
@@ -1889,48 +2617,32 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="4"/>
+      <c r="X30" s="13"/>
     </row>
     <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M31" s="1"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R31" s="1"/>
@@ -1938,13 +2650,11 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X31" s="4"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="13"/>
     </row>
     <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
@@ -1953,10 +2663,10 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4" t="s">
+      <c r="H32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J32" s="1"/>
@@ -1966,7 +2676,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R32" s="1"/>
@@ -1975,10 +2685,10 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="4"/>
+      <c r="X32" s="13"/>
     </row>
     <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
@@ -1987,10 +2697,10 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="H33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J33" s="1"/>
@@ -2000,7 +2710,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="4" t="s">
+      <c r="Q33" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R33" s="1"/>
@@ -2009,10 +2719,10 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="4"/>
+      <c r="X33" s="13"/>
     </row>
     <row r="34" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
@@ -2021,10 +2731,10 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="H34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J34" s="1"/>
@@ -2034,7 +2744,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="4" t="s">
+      <c r="Q34" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R34" s="1"/>
@@ -2043,10 +2753,10 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="4"/>
+      <c r="X34" s="13"/>
     </row>
     <row r="35" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2057,10 +2767,10 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="H35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J35" s="1"/>
@@ -2069,10 +2779,10 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="4" t="s">
+      <c r="P35" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="Q35" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R35" s="1"/>
@@ -2081,10 +2791,10 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
-      <c r="X35" s="4"/>
+      <c r="X35" s="13"/>
     </row>
     <row r="36" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
@@ -2093,10 +2803,10 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4" t="s">
+      <c r="H36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J36" s="1"/>
@@ -2105,10 +2815,10 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="4" t="s">
+      <c r="P36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R36" s="1"/>
@@ -2117,10 +2827,10 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="4"/>
+      <c r="X36" s="13"/>
     </row>
     <row r="37" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2129,10 +2839,10 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4" t="s">
+      <c r="H37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J37" s="1"/>
@@ -2141,10 +2851,10 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="4" t="s">
+      <c r="P37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R37" s="1"/>
@@ -2153,10 +2863,10 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="4"/>
+      <c r="X37" s="13"/>
     </row>
     <row r="38" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
@@ -2165,10 +2875,10 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4" t="s">
+      <c r="H38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J38" s="1"/>
@@ -2177,10 +2887,10 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="4" t="s">
+      <c r="P38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R38" s="1"/>
@@ -2189,10 +2899,10 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
-      <c r="X38" s="4"/>
+      <c r="X38" s="13"/>
     </row>
     <row r="39" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
@@ -2201,10 +2911,10 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4" t="s">
+      <c r="H39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J39" s="1"/>
@@ -2213,10 +2923,10 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="4" t="s">
+      <c r="P39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R39" s="1"/>
@@ -2225,10 +2935,10 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="4"/>
+      <c r="X39" s="13"/>
     </row>
     <row r="40" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="1" t="s">
         <v>55</v>
       </c>
@@ -2237,10 +2947,10 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="H40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J40" s="1"/>
@@ -2249,10 +2959,10 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="4" t="s">
+      <c r="P40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R40" s="1"/>
@@ -2261,10 +2971,10 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="4"/>
+      <c r="X40" s="13"/>
     </row>
     <row r="41" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2275,7 +2985,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I41" s="1"/>
@@ -2286,7 +2996,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="4" t="s">
+      <c r="Q41" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R41" s="1"/>
@@ -2294,13 +3004,13 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="X41" s="4"/>
+      <c r="W41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X41" s="13"/>
     </row>
     <row r="42" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="1" t="s">
         <v>51</v>
       </c>
@@ -2309,7 +3019,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I42" s="1"/>
@@ -2320,7 +3030,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="4" t="s">
+      <c r="Q42" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R42" s="1"/>
@@ -2328,13 +3038,13 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="X42" s="4"/>
+      <c r="W42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X42" s="13"/>
     </row>
     <row r="43" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="1" t="s">
         <v>52</v>
       </c>
@@ -2343,7 +3053,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I43" s="1"/>
@@ -2354,7 +3064,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="4" t="s">
+      <c r="Q43" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R43" s="1"/>
@@ -2362,13 +3072,13 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="X43" s="4"/>
+      <c r="W43" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X43" s="13"/>
     </row>
     <row r="44" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
@@ -2377,7 +3087,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I44" s="1"/>
@@ -2388,7 +3098,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="4" t="s">
+      <c r="Q44" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R44" s="1"/>
@@ -2396,13 +3106,13 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="X44" s="4"/>
+      <c r="W44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="X44" s="13"/>
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
@@ -2411,7 +3121,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I45" s="1"/>
@@ -2422,7 +3132,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="4" t="s">
+      <c r="Q45" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R45" s="1"/>
@@ -2430,13 +3140,13 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="X45" s="4"/>
+      <c r="W45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="X45" s="13"/>
     </row>
     <row r="46" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="1" t="s">
         <v>55</v>
       </c>
@@ -2445,7 +3155,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I46" s="1"/>
@@ -2456,7 +3166,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="4" t="s">
+      <c r="Q46" s="13" t="s">
         <v>0</v>
       </c>
       <c r="R46" s="1"/>
@@ -2465,43 +3175,53 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="4"/>
+      <c r="X46" s="13"/>
     </row>
     <row r="47" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="27">
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="M2:X2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="M9:M10"/>
     <mergeCell ref="A47:X47"/>
     <mergeCell ref="X5:X46"/>
     <mergeCell ref="H29:H46"/>
@@ -2514,7 +3234,6 @@
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2018-2019 2nd semester.xlsx
+++ b/2018-2019 2nd semester.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\MySchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1469FE5-D93B-426F-9EAC-4700AA71129F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFE9C2A-AA6F-40B5-9A0C-384FF2B220DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="100">
   <si>
     <t/>
   </si>
@@ -292,7 +292,42 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1-电工技术与电子技术C(56/3.5)(220160/刘锐/讲师)_x000D_
+    <t>SD5</t>
+  </si>
+  <si>
+    <t>SD7</t>
+  </si>
+  <si>
+    <t>SD10</t>
+  </si>
+  <si>
+    <t>SD10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD12</t>
+  </si>
+  <si>
+    <t>SD2</t>
+  </si>
+  <si>
+    <t>SD5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1-电工技术与电子技术C(56/3.5)(220160/刘锐/讲师)_x000D_
 材料2017-1班;材料2017-2班;材料2017-3班_x000D_
 2-通信原理A(64/4.0)(220160/刘锐/讲师)_x000D_
 信息2016-01班;信息2016-02班_x000D_
@@ -301,7 +336,12 @@
 M7--自动化17-3
 DG1--材料17-1
 DG2--材料17-2
-DG3--材料17-3</t>
+DG3--材料17-3
+SD5--自动化17-1
+SD7--自动化17-3
+SD10--电气17-3
+SD12--电气17-5
+</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -478,8 +518,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,8 +749,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -865,6 +918,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -993,7 +1061,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1028,6 +1096,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1037,6 +1129,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1046,25 +1144,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1426,7 +1509,7 @@
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1436,68 +1519,71 @@
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="6" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="16" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="6" customWidth="1"/>
     <col min="23" max="23" width="17" customWidth="1"/>
     <col min="24" max="24" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="17" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1648,7 +1734,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1660,7 +1746,7 @@
       <c r="D5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -1684,7 +1770,7 @@
       <c r="L5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="12" t="s">
         <v>88</v>
       </c>
       <c r="N5" s="1"/>
@@ -1692,7 +1778,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="21" t="s">
         <v>71</v>
       </c>
       <c r="T5" s="1"/>
@@ -1701,12 +1787,12 @@
       <c r="W5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="X5" s="14" t="s">
-        <v>89</v>
+      <c r="X5" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
@@ -1715,26 +1801,26 @@
       <c r="E6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="19" t="s">
+      <c r="L6" s="14"/>
+      <c r="M6" s="13" t="s">
         <v>81</v>
       </c>
       <c r="N6" s="1"/>
@@ -1742,17 +1828,17 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="13"/>
+      <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1761,26 +1847,26 @@
       <c r="E7" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="19" t="s">
+      <c r="L7" s="14"/>
+      <c r="M7" s="13" t="s">
         <v>83</v>
       </c>
       <c r="N7" s="1"/>
@@ -1788,17 +1874,17 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="13"/>
+      <c r="X7" s="21"/>
     </row>
     <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
@@ -1806,7 +1892,7 @@
       <c r="D8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -1830,13 +1916,15 @@
       <c r="L8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="1"/>
+      <c r="M8" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="13" t="s">
+      <c r="S8" s="21" t="s">
         <v>0</v>
       </c>
       <c r="T8" s="1"/>
@@ -1845,10 +1933,10 @@
       <c r="W8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="X8" s="13"/>
+      <c r="X8" s="21"/>
     </row>
     <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1862,7 +1950,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="23" t="s">
         <v>86</v>
       </c>
       <c r="N9" s="1"/>
@@ -1870,17 +1958,17 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="21" t="s">
         <v>0</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="13"/>
+      <c r="X9" s="21"/>
     </row>
     <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1894,23 +1982,23 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="22"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="13"/>
+      <c r="X10" s="21"/>
     </row>
     <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1918,24 +2006,24 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="21" t="s">
         <v>68</v>
       </c>
       <c r="M11" s="1"/>
@@ -1949,23 +2037,23 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="13"/>
+      <c r="X11" s="21"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="13" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="21" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
@@ -1979,40 +2067,53 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="13"/>
+      <c r="X12" s="21"/>
     </row>
     <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="21" t="s">
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="O13" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="13"/>
+      <c r="X13" s="21"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
@@ -2020,12 +2121,14 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="21" t="s">
         <v>0</v>
       </c>
       <c r="M14" s="1"/>
@@ -2039,10 +2142,10 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="13"/>
+      <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2055,7 +2158,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="21" t="s">
         <v>0</v>
       </c>
       <c r="M15" s="1"/>
@@ -2069,10 +2172,10 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="13"/>
+      <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
@@ -2085,7 +2188,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="21" t="s">
         <v>0</v>
       </c>
       <c r="M16" s="1"/>
@@ -2099,17 +2202,17 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="13"/>
+      <c r="X16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -2133,7 +2236,7 @@
       <c r="K17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="21" t="s">
         <v>0</v>
       </c>
       <c r="M17" s="11" t="s">
@@ -2151,10 +2254,10 @@
       <c r="W17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="X17" s="13"/>
+      <c r="X17" s="21"/>
     </row>
     <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
@@ -2167,24 +2270,40 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="L18" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="S18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="T18" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="13"/>
+      <c r="X18" s="21"/>
     </row>
     <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
@@ -2197,31 +2316,35 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="L19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="17"/>
+      <c r="N19" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O19" s="17"/>
+      <c r="P19" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="13"/>
+      <c r="X19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -2245,7 +2368,7 @@
       <c r="K20" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="21" t="s">
         <v>0</v>
       </c>
       <c r="M20" s="1"/>
@@ -2261,10 +2384,10 @@
       <c r="W20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="X20" s="13"/>
+      <c r="X20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
@@ -2277,7 +2400,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="21" t="s">
         <v>0</v>
       </c>
       <c r="M21" s="1"/>
@@ -2291,10 +2414,10 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="13"/>
+      <c r="X21" s="21"/>
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
@@ -2307,7 +2430,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="21" t="s">
         <v>0</v>
       </c>
       <c r="M22" s="1"/>
@@ -2321,10 +2444,10 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="13"/>
+      <c r="X22" s="21"/>
     </row>
     <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2339,7 +2462,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="21" t="s">
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
@@ -2353,17 +2476,17 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="13"/>
+      <c r="X23" s="21"/>
     </row>
     <row r="24" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -2387,26 +2510,42 @@
       <c r="K24" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="L24" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="R24" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="S24" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="T24" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="X24" s="13"/>
+      <c r="X24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2419,7 +2558,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="21" t="s">
         <v>0</v>
       </c>
       <c r="M25" s="1"/>
@@ -2433,15 +2572,15 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="13"/>
+      <c r="X25" s="21"/>
     </row>
     <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="11" t="s">
@@ -2465,45 +2604,61 @@
       <c r="K26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+      <c r="L26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="R26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="S26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T26" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X26" s="13"/>
+      <c r="X26" s="21"/>
     </row>
     <row r="27" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="21" t="s">
+      <c r="F27" s="15"/>
+      <c r="G27" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="21" t="s">
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="13" t="s">
+      <c r="K27" s="15"/>
+      <c r="L27" s="21" t="s">
         <v>0</v>
       </c>
       <c r="M27" s="1"/>
@@ -2517,23 +2672,23 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="13"/>
+      <c r="X27" s="21"/>
     </row>
     <row r="28" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="13" t="s">
+      <c r="E28" s="24"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="21" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="1"/>
@@ -2547,10 +2702,10 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="13"/>
+      <c r="X28" s="21"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2561,10 +2716,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="21" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="1"/>
@@ -2574,7 +2729,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="13" t="s">
+      <c r="Q29" s="21" t="s">
         <v>70</v>
       </c>
       <c r="R29" s="1"/>
@@ -2583,10 +2738,10 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="13"/>
+      <c r="X29" s="21"/>
     </row>
     <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2595,10 +2750,10 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13" t="s">
+      <c r="H30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J30" s="1"/>
@@ -2608,7 +2763,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="13" t="s">
+      <c r="Q30" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R30" s="1"/>
@@ -2617,10 +2772,10 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="13"/>
+      <c r="X30" s="21"/>
     </row>
     <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
@@ -2629,10 +2784,10 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="13" t="s">
+      <c r="H31" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J31" s="10"/>
@@ -2642,7 +2797,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="13" t="s">
+      <c r="Q31" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R31" s="1"/>
@@ -2651,10 +2806,10 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="13"/>
+      <c r="X31" s="21"/>
     </row>
     <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
@@ -2663,20 +2818,19 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="13" t="s">
+      <c r="H32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="13" t="s">
+      <c r="Q32" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R32" s="1"/>
@@ -2685,10 +2839,10 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="13"/>
+      <c r="X32" s="21"/>
     </row>
     <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
@@ -2697,10 +2851,10 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="13" t="s">
+      <c r="H33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J33" s="1"/>
@@ -2710,7 +2864,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="13" t="s">
+      <c r="Q33" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R33" s="1"/>
@@ -2719,10 +2873,10 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="13"/>
+      <c r="X33" s="21"/>
     </row>
     <row r="34" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
@@ -2731,10 +2885,10 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="13" t="s">
+      <c r="H34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J34" s="1"/>
@@ -2744,7 +2898,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="13" t="s">
+      <c r="Q34" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R34" s="1"/>
@@ -2753,10 +2907,10 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="13"/>
+      <c r="X34" s="21"/>
     </row>
     <row r="35" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2767,10 +2921,10 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="13" t="s">
+      <c r="H35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J35" s="1"/>
@@ -2779,10 +2933,10 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="13" t="s">
+      <c r="P35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q35" s="13" t="s">
+      <c r="Q35" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R35" s="1"/>
@@ -2791,10 +2945,10 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
-      <c r="X35" s="13"/>
+      <c r="X35" s="21"/>
     </row>
     <row r="36" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
@@ -2803,10 +2957,10 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="13" t="s">
+      <c r="H36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J36" s="1"/>
@@ -2815,10 +2969,10 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="13" t="s">
+      <c r="P36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R36" s="1"/>
@@ -2827,10 +2981,10 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="13"/>
+      <c r="X36" s="21"/>
     </row>
     <row r="37" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2839,10 +2993,10 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="13" t="s">
+      <c r="H37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J37" s="1"/>
@@ -2851,10 +3005,10 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="13" t="s">
+      <c r="P37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R37" s="1"/>
@@ -2863,10 +3017,10 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="13"/>
+      <c r="X37" s="21"/>
     </row>
     <row r="38" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
@@ -2875,10 +3029,10 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="13" t="s">
+      <c r="H38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J38" s="1"/>
@@ -2887,10 +3041,10 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="13" t="s">
+      <c r="P38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R38" s="1"/>
@@ -2899,10 +3053,10 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
-      <c r="X38" s="13"/>
+      <c r="X38" s="21"/>
     </row>
     <row r="39" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
@@ -2911,10 +3065,10 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="13" t="s">
+      <c r="H39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J39" s="1"/>
@@ -2923,10 +3077,10 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="13" t="s">
+      <c r="P39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R39" s="1"/>
@@ -2935,10 +3089,10 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="13"/>
+      <c r="X39" s="21"/>
     </row>
     <row r="40" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="1" t="s">
         <v>55</v>
       </c>
@@ -2947,10 +3101,10 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="13" t="s">
+      <c r="H40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J40" s="1"/>
@@ -2959,10 +3113,10 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="13" t="s">
+      <c r="P40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R40" s="1"/>
@@ -2971,10 +3125,10 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="13"/>
+      <c r="X40" s="21"/>
     </row>
     <row r="41" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2985,7 +3139,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="21" t="s">
         <v>0</v>
       </c>
       <c r="I41" s="1"/>
@@ -2996,7 +3150,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="13" t="s">
+      <c r="Q41" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R41" s="1"/>
@@ -3007,10 +3161,10 @@
       <c r="W41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="X41" s="13"/>
+      <c r="X41" s="21"/>
     </row>
     <row r="42" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="1" t="s">
         <v>51</v>
       </c>
@@ -3019,7 +3173,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="21" t="s">
         <v>0</v>
       </c>
       <c r="I42" s="1"/>
@@ -3030,7 +3184,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="13" t="s">
+      <c r="Q42" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R42" s="1"/>
@@ -3041,10 +3195,10 @@
       <c r="W42" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="X42" s="13"/>
+      <c r="X42" s="21"/>
     </row>
     <row r="43" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="1" t="s">
         <v>52</v>
       </c>
@@ -3053,7 +3207,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="21" t="s">
         <v>0</v>
       </c>
       <c r="I43" s="1"/>
@@ -3064,7 +3218,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="13" t="s">
+      <c r="Q43" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R43" s="1"/>
@@ -3075,10 +3229,10 @@
       <c r="W43" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="X43" s="13"/>
+      <c r="X43" s="21"/>
     </row>
     <row r="44" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
@@ -3087,7 +3241,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="21" t="s">
         <v>0</v>
       </c>
       <c r="I44" s="1"/>
@@ -3098,7 +3252,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="13" t="s">
+      <c r="Q44" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R44" s="1"/>
@@ -3109,10 +3263,10 @@
       <c r="W44" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="X44" s="13"/>
+      <c r="X44" s="21"/>
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
@@ -3121,7 +3275,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="21" t="s">
         <v>0</v>
       </c>
       <c r="I45" s="1"/>
@@ -3132,7 +3286,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="13" t="s">
+      <c r="Q45" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R45" s="1"/>
@@ -3143,10 +3297,10 @@
       <c r="W45" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="X45" s="13"/>
+      <c r="X45" s="21"/>
     </row>
     <row r="46" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="1" t="s">
         <v>55</v>
       </c>
@@ -3155,7 +3309,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="21" t="s">
         <v>0</v>
       </c>
       <c r="I46" s="1"/>
@@ -3166,7 +3320,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="13" t="s">
+      <c r="Q46" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R46" s="1"/>
@@ -3175,42 +3329,42 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="13"/>
+      <c r="X46" s="21"/>
     </row>
     <row r="47" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="M9:M10"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="M2:X2"/>
@@ -3218,10 +3372,6 @@
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="M9:M10"/>
     <mergeCell ref="A47:X47"/>
     <mergeCell ref="X5:X46"/>
     <mergeCell ref="H29:H46"/>
@@ -3234,6 +3384,10 @@
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2018-2019 2nd semester.xlsx
+++ b/2018-2019 2nd semester.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\MySchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFE9C2A-AA6F-40B5-9A0C-384FF2B220DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A310575-6746-4B77-95F4-DF662C83DC60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="98">
   <si>
     <t/>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>清明</t>
-  </si>
-  <si>
-    <t>田运</t>
   </si>
   <si>
     <t>五一</t>
@@ -320,10 +317,6 @@
   </si>
   <si>
     <t>M2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -349,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -523,6 +516,11 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1061,7 +1059,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1135,6 +1133,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1144,10 +1148,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1509,7 +1516,7 @@
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1535,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="21"/>
@@ -1556,7 +1563,7 @@
       <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="21"/>
@@ -1570,7 +1577,7 @@
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="29" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="21"/>
@@ -1749,16 +1756,16 @@
       <c r="E5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="F5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J5" s="11" t="s">
@@ -1771,7 +1778,7 @@
         <v>64</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1779,16 +1786,16 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X5" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1799,29 +1806,29 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1845,29 +1852,29 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>83</v>
+      <c r="I7" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1895,16 +1902,16 @@
       <c r="E8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="F8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J8" s="11" t="s">
@@ -1917,7 +1924,7 @@
         <v>64</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1931,7 +1938,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X8" s="21"/>
     </row>
@@ -1951,7 +1958,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2006,25 +2013,25 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>84</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>85</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2046,10 +2053,10 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="24"/>
@@ -2077,10 +2084,12 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2090,22 +2099,22 @@
       </c>
       <c r="M13" s="1"/>
       <c r="O13" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T13" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -2121,9 +2130,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="12" t="s">
-        <v>98</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2215,16 +2222,16 @@
       <c r="D17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="11" t="s">
+      <c r="E17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>64</v>
       </c>
       <c r="I17" s="11" t="s">
@@ -2252,7 +2259,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X17" s="21"/>
     </row>
@@ -2274,28 +2281,28 @@
         <v>0</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -2321,11 +2328,11 @@
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O19" s="17"/>
       <c r="P19" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
@@ -2347,16 +2354,16 @@
       <c r="D20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="11" t="s">
+      <c r="E20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>64</v>
       </c>
       <c r="I20" s="11" t="s">
@@ -2382,7 +2389,7 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X20" s="21"/>
     </row>
@@ -2465,17 +2472,21 @@
       <c r="L23" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
+      <c r="M23" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31" t="s">
+        <v>72</v>
+      </c>
       <c r="X23" s="21"/>
     </row>
     <row r="24" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2489,18 +2500,16 @@
       <c r="D24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="E24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="10"/>
       <c r="I24" s="11" t="s">
         <v>64</v>
       </c>
@@ -2514,33 +2523,33 @@
         <v>0</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N24" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="18" t="s">
-        <v>92</v>
-      </c>
       <c r="P24" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="Q24" s="18" t="s">
-        <v>92</v>
-      </c>
       <c r="R24" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S24" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T24" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X24" s="21"/>
     </row>
@@ -2583,18 +2592,16 @@
       <c r="D26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="E26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="10"/>
       <c r="I26" s="11" t="s">
         <v>64</v>
       </c>
@@ -2608,33 +2615,33 @@
         <v>0</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T26" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X26" s="21"/>
     </row>
@@ -2645,17 +2652,17 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="23" t="s">
-        <v>87</v>
+      <c r="E27" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="23" t="s">
-        <v>87</v>
+      <c r="G27" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="21" t="s">
@@ -2681,9 +2688,9 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="24"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="24"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="24"/>
@@ -2719,8 +2726,8 @@
       <c r="H29" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="21" t="s">
-        <v>67</v>
+      <c r="I29" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2730,14 +2737,16 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
+      <c r="W29" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="X29" s="21"/>
     </row>
     <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2753,9 +2762,7 @@
       <c r="H30" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I30" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2787,9 +2794,7 @@
       <c r="H31" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I31" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -2821,9 +2826,7 @@
       <c r="H32" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I32" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2854,9 +2857,7 @@
       <c r="H33" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I33" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2888,9 +2889,7 @@
       <c r="H34" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2924,9 +2923,7 @@
       <c r="H35" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I35" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2934,7 +2931,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q35" s="21" t="s">
         <v>0</v>
@@ -2960,9 +2957,7 @@
       <c r="H36" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I36" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2996,9 +2991,7 @@
       <c r="H37" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I37" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3032,9 +3025,7 @@
       <c r="H38" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3068,9 +3059,7 @@
       <c r="H39" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I39" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3104,9 +3093,7 @@
       <c r="H40" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I40" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3159,7 +3146,7 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X41" s="21"/>
     </row>
@@ -3193,7 +3180,7 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X42" s="21"/>
     </row>
@@ -3227,7 +3214,7 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X43" s="21"/>
     </row>
@@ -3261,7 +3248,7 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X44" s="21"/>
     </row>
@@ -3295,7 +3282,7 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X45" s="21"/>
     </row>
@@ -3360,8 +3347,7 @@
       <c r="X47" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="J27:J28"/>
+  <mergeCells count="26">
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="M9:M10"/>
@@ -3375,7 +3361,6 @@
     <mergeCell ref="A47:X47"/>
     <mergeCell ref="X5:X46"/>
     <mergeCell ref="H29:H46"/>
-    <mergeCell ref="I29:I40"/>
     <mergeCell ref="L11:L28"/>
     <mergeCell ref="P35:P40"/>
     <mergeCell ref="A17:A22"/>
@@ -3388,6 +3373,7 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
+    <mergeCell ref="J27:J28"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2018-2019 2nd semester.xlsx
+++ b/2018-2019 2nd semester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\MySchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A310575-6746-4B77-95F4-DF662C83DC60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75092230-3676-4100-A513-DA8F93ABCE3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="100">
   <si>
     <t/>
   </si>
@@ -285,10 +285,6 @@
     <t>DG3</t>
   </si>
   <si>
-    <t>DG3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>SD5</t>
   </si>
   <si>
@@ -320,7 +316,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1-电工技术与电子技术C(56/3.5)(220160/刘锐/讲师)_x000D_
+    <t>1-电工技术与电子技术C(56/3.5)(220160/刘锐/讲师)_x000D_
 材料2017-1班;材料2017-2班;材料2017-3班_x000D_
 2-通信原理A(64/4.0)(220160/刘锐/讲师)_x000D_
 信息2016-01班;信息2016-02班_x000D_
@@ -334,7 +330,20 @@
 SD7--自动化17-3
 SD10--电气17-3
 SD12--电气17-5
-</t>
+TX1--信息16-1
+TX2--信息16-2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG1,2/3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1097,9 +1106,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1118,6 +1124,18 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1127,12 +1145,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1148,13 +1160,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1516,7 +1528,7 @@
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1525,8 +1537,7 @@
     <col min="2" max="10" width="6" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
     <col min="16" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="6" customWidth="1"/>
@@ -1535,62 +1546,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
     </row>
     <row r="2" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="29" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1741,7 +1752,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1768,24 +1779,22 @@
       <c r="I5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>87</v>
-      </c>
+      <c r="J5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="10"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="24" t="s">
         <v>70</v>
       </c>
       <c r="T5" s="1"/>
@@ -1794,104 +1803,100 @@
       <c r="W5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="X5" s="22" t="s">
-        <v>97</v>
+      <c r="X5" s="25" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="21" t="s">
+      <c r="S6" s="24" t="s">
         <v>0</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="21"/>
+      <c r="X6" s="24"/>
     </row>
     <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="24" t="s">
         <v>0</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="21"/>
+      <c r="X7" s="24"/>
     </row>
     <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
@@ -1914,24 +1919,21 @@
       <c r="I8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>92</v>
+      <c r="J8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="21" t="s">
+      <c r="S8" s="24" t="s">
         <v>0</v>
       </c>
       <c r="T8" s="1"/>
@@ -1940,10 +1942,10 @@
       <c r="W8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X8" s="21"/>
+      <c r="X8" s="24"/>
     </row>
     <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1957,25 +1959,23 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="23" t="s">
-        <v>85</v>
-      </c>
+      <c r="M9" s="22"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="24" t="s">
         <v>0</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="21"/>
+      <c r="X9" s="24"/>
     </row>
     <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1989,23 +1989,23 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="24"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="21" t="s">
+      <c r="S10" s="24" t="s">
         <v>0</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="21"/>
+      <c r="X10" s="24"/>
     </row>
     <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2013,27 +2013,29 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="23" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2044,23 +2046,23 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="21"/>
+      <c r="X11" s="24"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="21" t="s">
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="24" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
@@ -2074,55 +2076,57 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="21"/>
+      <c r="X12" s="24"/>
     </row>
     <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="O13" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="R13" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="S13" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="T13" s="18" t="s">
-        <v>95</v>
+      <c r="L13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="21"/>
+      <c r="X13" s="24"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
@@ -2135,7 +2139,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="24" t="s">
         <v>0</v>
       </c>
       <c r="M14" s="1"/>
@@ -2149,10 +2153,10 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="21"/>
+      <c r="X14" s="24"/>
     </row>
     <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2165,10 +2169,12 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1"/>
+      <c r="L15" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>99</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2179,10 +2185,10 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="21"/>
+      <c r="X15" s="24"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
@@ -2195,10 +2201,10 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1"/>
+      <c r="L16" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="32"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2209,10 +2215,10 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="21"/>
+      <c r="X16" s="24"/>
     </row>
     <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="24" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2234,16 +2240,16 @@
       <c r="H17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="21" t="s">
+      <c r="I17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="24" t="s">
         <v>0</v>
       </c>
       <c r="M17" s="11" t="s">
@@ -2261,10 +2267,10 @@
       <c r="W17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X17" s="21"/>
+      <c r="X17" s="24"/>
     </row>
     <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
@@ -2275,42 +2281,46 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="R18" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="S18" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="T18" s="18" t="s">
-        <v>94</v>
+      <c r="J18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="21"/>
+      <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
@@ -2323,28 +2333,28 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="17"/>
-      <c r="N19" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="L19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="21"/>
+      <c r="X19" s="24"/>
     </row>
     <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
@@ -2366,16 +2376,16 @@
       <c r="H20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="21" t="s">
+      <c r="I20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="24" t="s">
         <v>0</v>
       </c>
       <c r="M20" s="1"/>
@@ -2391,10 +2401,10 @@
       <c r="W20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X20" s="21"/>
+      <c r="X20" s="24"/>
     </row>
     <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
@@ -2407,7 +2417,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="24" t="s">
         <v>0</v>
       </c>
       <c r="M21" s="1"/>
@@ -2421,10 +2431,10 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="21"/>
+      <c r="X21" s="24"/>
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,7 +2447,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="24" t="s">
         <v>0</v>
       </c>
       <c r="M22" s="1"/>
@@ -2451,10 +2461,10 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="21"/>
+      <c r="X22" s="24"/>
     </row>
     <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2467,30 +2477,36 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="30" t="s">
+      <c r="J23" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31" t="s">
+      <c r="N23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="X23" s="21"/>
+      <c r="X23" s="24"/>
     </row>
     <row r="24" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
@@ -2510,51 +2526,51 @@
         <v>64</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" s="18" t="s">
+      <c r="I24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="O24" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="P24" s="18" t="s">
+      <c r="N24" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O24" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="Q24" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="R24" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="S24" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="T24" s="18" t="s">
-        <v>91</v>
+      <c r="P24" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="X24" s="21"/>
+      <c r="X24" s="24"/>
     </row>
     <row r="25" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2567,7 +2583,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="24" t="s">
         <v>0</v>
       </c>
       <c r="M25" s="1"/>
@@ -2581,10 +2597,10 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="21"/>
+      <c r="X25" s="24"/>
     </row>
     <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
@@ -2602,70 +2618,70 @@
         <v>64</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="N26" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="O26" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q26" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="R26" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="S26" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="T26" s="18" t="s">
-        <v>89</v>
+      <c r="I26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="X26" s="21"/>
+      <c r="X26" s="24"/>
     </row>
     <row r="27" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="25" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="23" t="s">
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="21" t="s">
+      <c r="K27" s="14"/>
+      <c r="L27" s="24" t="s">
         <v>0</v>
       </c>
       <c r="M27" s="1"/>
@@ -2679,23 +2695,23 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="21"/>
+      <c r="X27" s="24"/>
     </row>
     <row r="28" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="21" t="s">
+      <c r="E28" s="27"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="24" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="1"/>
@@ -2709,10 +2725,10 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="21"/>
+      <c r="X28" s="24"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2723,10 +2739,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="9" t="s">
         <v>63</v>
       </c>
       <c r="J29" s="1"/>
@@ -2736,7 +2752,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="21" t="s">
+      <c r="Q29" s="24" t="s">
         <v>69</v>
       </c>
       <c r="R29" s="1"/>
@@ -2744,13 +2760,13 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="32" t="s">
+      <c r="W29" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="X29" s="21"/>
+      <c r="X29" s="24"/>
     </row>
     <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2759,7 +2775,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="1"/>
@@ -2770,7 +2786,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="21" t="s">
+      <c r="Q30" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R30" s="1"/>
@@ -2779,10 +2795,10 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="21"/>
+      <c r="X30" s="24"/>
     </row>
     <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
@@ -2791,7 +2807,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I31" s="10"/>
@@ -2802,7 +2818,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="21" t="s">
+      <c r="Q31" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R31" s="1"/>
@@ -2811,10 +2827,10 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="21"/>
+      <c r="X31" s="24"/>
     </row>
     <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
@@ -2823,7 +2839,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I32" s="1"/>
@@ -2833,7 +2849,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="21" t="s">
+      <c r="Q32" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R32" s="1"/>
@@ -2842,10 +2858,10 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="21"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
@@ -2854,7 +2870,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="1"/>
@@ -2865,7 +2881,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="21" t="s">
+      <c r="Q33" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R33" s="1"/>
@@ -2874,10 +2890,10 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="21"/>
+      <c r="X33" s="24"/>
     </row>
     <row r="34" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
@@ -2886,7 +2902,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I34" s="1"/>
@@ -2897,7 +2913,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="21" t="s">
+      <c r="Q34" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R34" s="1"/>
@@ -2906,10 +2922,10 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="21"/>
+      <c r="X34" s="24"/>
     </row>
     <row r="35" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2920,7 +2936,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I35" s="1"/>
@@ -2930,10 +2946,10 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="21" t="s">
+      <c r="P35" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Q35" s="21" t="s">
+      <c r="Q35" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R35" s="1"/>
@@ -2942,10 +2958,10 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
-      <c r="X35" s="21"/>
+      <c r="X35" s="24"/>
     </row>
     <row r="36" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
@@ -2954,7 +2970,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I36" s="1"/>
@@ -2964,10 +2980,10 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="21" t="s">
+      <c r="P36" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R36" s="1"/>
@@ -2976,10 +2992,10 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="21"/>
+      <c r="X36" s="24"/>
     </row>
     <row r="37" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2988,7 +3004,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I37" s="1"/>
@@ -2998,10 +3014,10 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="21" t="s">
+      <c r="P37" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R37" s="1"/>
@@ -3010,10 +3026,10 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="21"/>
+      <c r="X37" s="24"/>
     </row>
     <row r="38" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
@@ -3022,7 +3038,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="21" t="s">
+      <c r="H38" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I38" s="1"/>
@@ -3032,10 +3048,10 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="21" t="s">
+      <c r="P38" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R38" s="1"/>
@@ -3044,10 +3060,10 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
-      <c r="X38" s="21"/>
+      <c r="X38" s="24"/>
     </row>
     <row r="39" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
@@ -3056,7 +3072,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I39" s="1"/>
@@ -3066,10 +3082,10 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="21" t="s">
+      <c r="P39" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R39" s="1"/>
@@ -3078,10 +3094,10 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="21"/>
+      <c r="X39" s="24"/>
     </row>
     <row r="40" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="1" t="s">
         <v>55</v>
       </c>
@@ -3090,7 +3106,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I40" s="1"/>
@@ -3100,10 +3116,10 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="21" t="s">
+      <c r="P40" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R40" s="1"/>
@@ -3112,10 +3128,10 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="21"/>
+      <c r="X40" s="24"/>
     </row>
     <row r="41" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3126,7 +3142,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I41" s="1"/>
@@ -3137,7 +3153,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="21" t="s">
+      <c r="Q41" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R41" s="1"/>
@@ -3148,10 +3164,10 @@
       <c r="W41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="X41" s="21"/>
+      <c r="X41" s="24"/>
     </row>
     <row r="42" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="1" t="s">
         <v>51</v>
       </c>
@@ -3160,7 +3176,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="21" t="s">
+      <c r="H42" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I42" s="1"/>
@@ -3171,7 +3187,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="21" t="s">
+      <c r="Q42" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R42" s="1"/>
@@ -3182,10 +3198,10 @@
       <c r="W42" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="X42" s="21"/>
+      <c r="X42" s="24"/>
     </row>
     <row r="43" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="1" t="s">
         <v>52</v>
       </c>
@@ -3194,7 +3210,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="21" t="s">
+      <c r="H43" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I43" s="1"/>
@@ -3205,7 +3221,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="21" t="s">
+      <c r="Q43" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R43" s="1"/>
@@ -3216,10 +3232,10 @@
       <c r="W43" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="X43" s="21"/>
+      <c r="X43" s="24"/>
     </row>
     <row r="44" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
@@ -3228,7 +3244,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="21" t="s">
+      <c r="H44" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I44" s="1"/>
@@ -3239,7 +3255,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="21" t="s">
+      <c r="Q44" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R44" s="1"/>
@@ -3250,10 +3266,10 @@
       <c r="W44" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="X44" s="21"/>
+      <c r="X44" s="24"/>
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
@@ -3262,7 +3278,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="21" t="s">
+      <c r="H45" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I45" s="1"/>
@@ -3273,7 +3289,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="21" t="s">
+      <c r="Q45" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R45" s="1"/>
@@ -3284,10 +3300,10 @@
       <c r="W45" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="X45" s="21"/>
+      <c r="X45" s="24"/>
     </row>
     <row r="46" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="1" t="s">
         <v>55</v>
       </c>
@@ -3296,7 +3312,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="21" t="s">
+      <c r="H46" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I46" s="1"/>
@@ -3307,7 +3323,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="21" t="s">
+      <c r="Q46" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R46" s="1"/>
@@ -3316,41 +3332,40 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="21"/>
+      <c r="X46" s="24"/>
     </row>
     <row r="47" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="G27:G28"/>
-    <mergeCell ref="M9:M10"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="M2:X2"/>
@@ -3358,6 +3373,7 @@
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
+    <mergeCell ref="M15:M16"/>
     <mergeCell ref="A47:X47"/>
     <mergeCell ref="X5:X46"/>
     <mergeCell ref="H29:H46"/>

--- a/2018-2019 2nd semester.xlsx
+++ b/2018-2019 2nd semester.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\MySchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75092230-3676-4100-A513-DA8F93ABCE3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B058D39-60F1-4E9E-8417-50B26041572C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="102">
   <si>
     <t/>
   </si>
@@ -343,7 +343,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>DG1,2/3</t>
+    <t>DG3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG1,2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>答疑</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -940,6 +948,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1068,7 +1089,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1124,9 +1145,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1136,6 +1154,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1160,13 +1181,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1528,7 +1561,7 @@
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1788,7 +1821,9 @@
       <c r="L5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="M5" s="33" t="s">
+        <v>99</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1836,7 +1871,7 @@
         <v>80</v>
       </c>
       <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="M6" s="34"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1925,7 +1960,7 @@
       <c r="K8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="M8" s="22" t="s">
         <v>91</v>
       </c>
       <c r="N8" s="1"/>
@@ -1959,7 +1994,9 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="22"/>
+      <c r="M9" s="35" t="s">
+        <v>100</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1989,7 +2026,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="22"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2033,10 +2070,12 @@
       <c r="L11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2066,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2099,7 +2138,10 @@
       <c r="L13" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>97</v>
       </c>
       <c r="O13" s="17" t="s">
@@ -2172,9 +2214,7 @@
       <c r="L15" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="M15" s="31" t="s">
-        <v>99</v>
-      </c>
+      <c r="M15" s="31"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2252,7 +2292,7 @@
       <c r="L17" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="9" t="s">
         <v>65</v>
       </c>
       <c r="N17" s="1"/>
@@ -2290,7 +2330,7 @@
       <c r="L18" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="22" t="s">
         <v>87</v>
       </c>
       <c r="N18" s="17" t="s">
@@ -2486,21 +2526,21 @@
       <c r="L23" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="36" t="s">
         <v>65</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20" t="s">
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19" t="s">
         <v>72</v>
       </c>
       <c r="X23" s="24"/>
@@ -2538,7 +2578,7 @@
       <c r="L24" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="M24" s="22" t="s">
         <v>90</v>
       </c>
       <c r="N24" s="17" t="s">
@@ -2587,7 +2627,9 @@
         <v>0</v>
       </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="37" t="s">
+        <v>101</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2630,7 +2672,7 @@
       <c r="L26" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" s="22" t="s">
         <v>88</v>
       </c>
       <c r="N26" s="17" t="s">
@@ -2760,7 +2802,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="21" t="s">
+      <c r="W29" s="20" t="s">
         <v>79</v>
       </c>
       <c r="X29" s="24"/>
@@ -3363,7 +3405,7 @@
       <c r="X47" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="A1:X1"/>
@@ -3374,6 +3416,8 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M9:M10"/>
     <mergeCell ref="A47:X47"/>
     <mergeCell ref="X5:X46"/>
     <mergeCell ref="H29:H46"/>

--- a/2018-2019 2nd semester.xlsx
+++ b/2018-2019 2nd semester.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\MySchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B058D39-60F1-4E9E-8417-50B26041572C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17354AC7-1D22-4D75-B409-419D27F4A2CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="105">
   <si>
     <t/>
   </si>
@@ -299,9 +299,6 @@
   </si>
   <si>
     <t>SD12</t>
-  </si>
-  <si>
-    <t>SD2</t>
   </si>
   <si>
     <t>SD5</t>
@@ -351,7 +348,27 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>答疑</t>
+    <t>9:30-11:30
+1南402</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-16:30
+1南302</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CET4
+主816</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CET6
+主816</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>监考</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +788,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -961,6 +978,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1089,7 +1182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1121,12 +1214,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1139,9 +1226,6 @@
     <xf numFmtId="0" fontId="27" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1157,96 +1241,126 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 着色 1 2" xfId="2" xr:uid="{6065B834-9BE2-4490-937D-B256367F549E}"/>
-    <cellStyle name="20% - 着色 2 2" xfId="3" xr:uid="{0C0575E9-6824-42A4-868F-A5EC8116A7D0}"/>
-    <cellStyle name="20% - 着色 3 2" xfId="4" xr:uid="{CEFABB29-6347-49DD-BEC7-AF566BE4F86B}"/>
-    <cellStyle name="20% - 着色 4 2" xfId="5" xr:uid="{EF05FB92-5989-49F9-9DAC-D6E3E5124083}"/>
-    <cellStyle name="20% - 着色 5 2" xfId="6" xr:uid="{D9E3A1CF-485B-4D38-AC6A-83B7AD3BF789}"/>
-    <cellStyle name="20% - 着色 6 2" xfId="7" xr:uid="{249AA146-CD1B-4C40-85BB-A17817CF9050}"/>
-    <cellStyle name="40% - 着色 1 2" xfId="8" xr:uid="{84CBAF28-8FBC-4389-A0B2-131229801D88}"/>
-    <cellStyle name="40% - 着色 2 2" xfId="9" xr:uid="{2DBF46F0-5359-4BA5-8733-8F8876957385}"/>
-    <cellStyle name="40% - 着色 3 2" xfId="10" xr:uid="{238B80BB-CDA9-40AF-B60E-88E59DC1C8BB}"/>
-    <cellStyle name="40% - 着色 4 2" xfId="11" xr:uid="{2673F153-0A72-4646-9B06-D41AC0B696D7}"/>
-    <cellStyle name="40% - 着色 5 2" xfId="12" xr:uid="{939A542A-570A-4943-BBDF-6E611A3DC144}"/>
-    <cellStyle name="40% - 着色 6 2" xfId="13" xr:uid="{E4E39365-6FF2-40B8-9C6C-4112E350D28E}"/>
-    <cellStyle name="60% - 着色 1 2" xfId="14" xr:uid="{99DB72B4-FD4A-4311-BBC8-945B26FC690C}"/>
-    <cellStyle name="60% - 着色 2 2" xfId="15" xr:uid="{7876A2B8-DD98-4996-8877-B3DC2C479741}"/>
-    <cellStyle name="60% - 着色 3 2" xfId="16" xr:uid="{500F9FD4-B414-430E-A4EC-8E3BEBA1E0A3}"/>
-    <cellStyle name="60% - 着色 4 2" xfId="17" xr:uid="{70FE1B5A-BA2C-4502-BE60-EFEEE087C6F0}"/>
-    <cellStyle name="60% - 着色 5 2" xfId="18" xr:uid="{97185815-26A6-4DCB-A44E-B7AB32BD902E}"/>
-    <cellStyle name="60% - 着色 6 2" xfId="19" xr:uid="{A8059EED-7E0B-4566-AA95-F5C7EEF66C58}"/>
-    <cellStyle name="标题 1 2" xfId="21" xr:uid="{2E41E60D-8A38-4110-B6B0-853231766DC2}"/>
-    <cellStyle name="标题 2 2" xfId="22" xr:uid="{E9651803-C898-4883-B0F4-1D08B6D7671C}"/>
-    <cellStyle name="标题 3 2" xfId="23" xr:uid="{976A3C99-C9D1-4F06-9357-0735ABF0428F}"/>
-    <cellStyle name="标题 4 2" xfId="24" xr:uid="{83B5296B-547B-41DC-AE24-0131AE0E31E5}"/>
-    <cellStyle name="标题 5" xfId="20" xr:uid="{33B3A713-8DCA-4CE7-8C70-14ABE538DC15}"/>
-    <cellStyle name="差 2" xfId="25" xr:uid="{A0A66B00-C0A1-403A-8B04-2FFDB5342255}"/>
+    <cellStyle name="20% - 着色 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 着色 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 着色 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 着色 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 着色 5 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 着色 6 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 着色 1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 着色 3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 着色 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 着色 6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 着色 1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 着色 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 着色 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 着色 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 着色 5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 着色 6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="标题 1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="标题 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="标题 3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="标题 4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="标题 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="差 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{EE59C65E-6224-440E-A887-F55971EFF321}"/>
-    <cellStyle name="好 2" xfId="26" xr:uid="{49750D8B-DAC5-493A-B925-51F4369FF9FC}"/>
-    <cellStyle name="汇总 2" xfId="27" xr:uid="{442C8BC2-9B65-4206-9DB0-1737533E9266}"/>
-    <cellStyle name="计算 2" xfId="28" xr:uid="{5E74AF11-3F00-4A89-A307-A4FD179A1C3E}"/>
-    <cellStyle name="检查单元格 2" xfId="29" xr:uid="{E778EEDD-679E-4C2D-B9D8-11022DFBC981}"/>
-    <cellStyle name="解释性文本 2" xfId="30" xr:uid="{8C3B8147-567A-4472-8092-5D17AAC1E397}"/>
-    <cellStyle name="警告文本 2" xfId="31" xr:uid="{D48730BA-E940-4CAD-BAB9-F502D413F08A}"/>
-    <cellStyle name="链接单元格 2" xfId="32" xr:uid="{5B811425-21D0-4B16-84D5-D6D58AA39838}"/>
-    <cellStyle name="适中 2" xfId="33" xr:uid="{8DE0BEFB-2DAD-4B84-B7B8-A39FDC9A5698}"/>
-    <cellStyle name="输出 2" xfId="34" xr:uid="{23EAAC19-2791-48FF-9832-3BC61C5B8905}"/>
-    <cellStyle name="输入 2" xfId="35" xr:uid="{31CF5BC2-3636-4CE6-9D1E-B9B77F5C6DF0}"/>
-    <cellStyle name="着色 1 2" xfId="36" xr:uid="{A5A9CDBC-F5F2-4E92-89BC-7E911FE2188B}"/>
-    <cellStyle name="着色 2 2" xfId="37" xr:uid="{C3E43B6F-6EDC-4ACD-A706-91C2E68AC455}"/>
-    <cellStyle name="着色 3 2" xfId="38" xr:uid="{2B507769-CF3B-4FE8-BC08-6EC52C5A4F41}"/>
-    <cellStyle name="着色 4 2" xfId="39" xr:uid="{27D26259-DF5E-4F7F-B6CF-8A24995DBA60}"/>
-    <cellStyle name="着色 5 2" xfId="40" xr:uid="{66F30146-E1CF-40B6-B98D-3546F22C965A}"/>
-    <cellStyle name="着色 6 2" xfId="41" xr:uid="{FCBC76AA-B2D9-4561-839D-F2CCB77E68FD}"/>
-    <cellStyle name="注释 2" xfId="42" xr:uid="{A4E25324-AF74-4167-AFF1-42AFF7E592CF}"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="好 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="汇总 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="计算 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="检查单元格 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="解释性文本 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="警告文本 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="链接单元格 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="适中 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="输出 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="输入 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="着色 1 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="着色 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="着色 5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="着色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1561,7 +1675,7 @@
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="V5" sqref="V5:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1572,69 +1686,71 @@
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="6" customWidth="1"/>
+    <col min="16" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="6" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
     <col min="23" max="23" width="17" customWidth="1"/>
     <col min="24" max="24" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
     </row>
     <row r="2" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="30" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
     </row>
     <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1785,7 +1901,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1821,117 +1937,119 @@
       <c r="L5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="33" t="s">
-        <v>99</v>
+      <c r="M5" s="31" t="s">
+        <v>98</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="34" t="s">
         <v>70</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="V5" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="W5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="X5" s="25" t="s">
-        <v>96</v>
+      <c r="X5" s="44" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="34"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="V6" s="32"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="24"/>
+      <c r="X6" s="34"/>
     </row>
     <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="24"/>
+      <c r="X7" s="34"/>
     </row>
     <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
@@ -1960,7 +2078,7 @@
       <c r="K8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="19" t="s">
         <v>91</v>
       </c>
       <c r="N8" s="1"/>
@@ -1968,7 +2086,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T8" s="1"/>
@@ -1977,10 +2095,10 @@
       <c r="W8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X8" s="24"/>
+      <c r="X8" s="34"/>
     </row>
     <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1994,25 +2112,25 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="35" t="s">
-        <v>100</v>
+      <c r="M9" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="24"/>
+      <c r="X9" s="34"/>
     </row>
     <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
@@ -2026,23 +2144,23 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="34"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="24"/>
+      <c r="X10" s="34"/>
     </row>
     <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2050,31 +2168,31 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="26" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="34" t="s">
         <v>67</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2082,93 +2200,99 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
+      <c r="U11" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="24"/>
+      <c r="X11" s="34"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="24" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="21"/>
+      <c r="N12" s="18"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="Q12" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="U12" s="41"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="24"/>
+      <c r="X12" s="34"/>
     </row>
     <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="S13" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="U13" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="U13" s="42"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="24"/>
+      <c r="X13" s="34"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
@@ -2181,24 +2305,24 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="O14" s="10"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="U14" s="21"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="24"/>
+      <c r="X14" s="34"/>
     </row>
     <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2211,24 +2335,24 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="31"/>
+      <c r="L15" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="37"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="O15" s="10"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
+      <c r="U15" s="21"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="24"/>
+      <c r="X15" s="34"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
@@ -2241,24 +2365,24 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="32"/>
+      <c r="L16" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="38"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="O16" s="10"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="U16" s="21"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="24"/>
+      <c r="X16" s="34"/>
     </row>
     <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="34" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2289,28 +2413,28 @@
       <c r="K17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>65</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="O17" s="10"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
+      <c r="U17" s="21"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X17" s="24"/>
+      <c r="X17" s="34"/>
     </row>
     <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
@@ -2322,45 +2446,43 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="O18" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="P18" s="17" t="s">
+      <c r="O18" s="22"/>
+      <c r="P18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="U18" s="1"/>
+      <c r="Q18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="U18" s="22"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="24"/>
+      <c r="X18" s="34"/>
     </row>
     <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
@@ -2373,28 +2495,28 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17" t="s">
+      <c r="L19" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="N19" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="17" t="s">
+      <c r="O19" s="22"/>
+      <c r="P19" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="1"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="24"/>
+      <c r="X19" s="34"/>
     </row>
     <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
@@ -2425,26 +2547,30 @@
       <c r="K20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="O20" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
+      <c r="U20" s="21"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X20" s="24"/>
+      <c r="X20" s="34"/>
     </row>
     <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
@@ -2457,24 +2583,24 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="O21" s="10"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="U21" s="21"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="24"/>
+      <c r="X21" s="34"/>
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
@@ -2487,24 +2613,24 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="24" t="s">
+      <c r="L22" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="O22" s="10"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="U22" s="21"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="24"/>
+      <c r="X22" s="34"/>
     </row>
     <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2518,35 +2644,35 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19" t="s">
+      <c r="N23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="23"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="X23" s="24"/>
+      <c r="X23" s="34"/>
     </row>
     <row r="24" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
@@ -2575,42 +2701,40 @@
       <c r="K24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" s="22" t="s">
+      <c r="L24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="O24" s="17" t="s">
+      <c r="O24" s="22"/>
+      <c r="P24" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q24" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="P24" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q24" s="17" t="s">
+      <c r="R24" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="R24" s="17" t="s">
+      <c r="S24" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="S24" s="17" t="s">
+      <c r="T24" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="T24" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="U24" s="1"/>
+      <c r="U24" s="22"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="X24" s="24"/>
+      <c r="X24" s="34"/>
     </row>
     <row r="25" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2623,26 +2747,24 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="O25" s="1"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
+      <c r="U25" s="21"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="24"/>
+      <c r="X25" s="34"/>
     </row>
     <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
@@ -2669,61 +2791,50 @@
       <c r="K26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="22" t="s">
+      <c r="L26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="N26" s="17" t="s">
+      <c r="N26" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="O26" s="17" t="s">
+      <c r="O26" s="22"/>
+      <c r="P26" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="P26" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="S26" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="T26" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="U26" s="1"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="28"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="X26" s="24"/>
+      <c r="X26" s="34"/>
     </row>
     <row r="27" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="26" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="26" t="s">
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="24" t="s">
+      <c r="K27" s="12"/>
+      <c r="L27" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M27" s="1"/>
@@ -2732,28 +2843,28 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="24"/>
+      <c r="X27" s="34"/>
     </row>
     <row r="28" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="24" t="s">
+      <c r="E28" s="30"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="1"/>
@@ -2767,10 +2878,10 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="24"/>
+      <c r="X28" s="34"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="34" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2781,7 +2892,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="34" t="s">
         <v>66</v>
       </c>
       <c r="I29" s="9" t="s">
@@ -2794,7 +2905,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="24" t="s">
+      <c r="Q29" s="34" t="s">
         <v>69</v>
       </c>
       <c r="R29" s="1"/>
@@ -2802,13 +2913,13 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="20" t="s">
+      <c r="W29" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="X29" s="24"/>
+      <c r="X29" s="34"/>
     </row>
     <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2817,7 +2928,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="1"/>
@@ -2828,7 +2939,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="24" t="s">
+      <c r="Q30" s="34" t="s">
         <v>0</v>
       </c>
       <c r="R30" s="1"/>
@@ -2837,10 +2948,10 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="24"/>
+      <c r="X30" s="34"/>
     </row>
     <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
@@ -2849,7 +2960,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I31" s="10"/>
@@ -2860,19 +2971,21 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="24" t="s">
+      <c r="Q31" s="34" t="s">
         <v>0</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
+      <c r="T31" s="31" t="s">
+        <v>101</v>
+      </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="24"/>
+      <c r="X31" s="34"/>
     </row>
     <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
@@ -2881,7 +2994,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I32" s="1"/>
@@ -2891,19 +3004,19 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="24" t="s">
+      <c r="Q32" s="34" t="s">
         <v>0</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
+      <c r="T32" s="32"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="24"/>
+      <c r="X32" s="34"/>
     </row>
     <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
@@ -2912,7 +3025,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="1"/>
@@ -2923,7 +3036,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="24" t="s">
+      <c r="Q33" s="34" t="s">
         <v>0</v>
       </c>
       <c r="R33" s="1"/>
@@ -2932,10 +3045,10 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="24"/>
+      <c r="X33" s="34"/>
     </row>
     <row r="34" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
@@ -2944,7 +3057,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I34" s="1"/>
@@ -2955,7 +3068,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="24" t="s">
+      <c r="Q34" s="34" t="s">
         <v>0</v>
       </c>
       <c r="R34" s="1"/>
@@ -2964,10 +3077,10 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="24"/>
+      <c r="X34" s="34"/>
     </row>
     <row r="35" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2978,7 +3091,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I35" s="1"/>
@@ -2988,22 +3101,24 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="24" t="s">
+      <c r="P35" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="Q35" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R35" s="1"/>
+      <c r="Q35" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35" s="31" t="s">
+        <v>102</v>
+      </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
-      <c r="X35" s="24"/>
+      <c r="X35" s="34"/>
     </row>
     <row r="36" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
@@ -3012,7 +3127,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I36" s="1"/>
@@ -3022,22 +3137,22 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R36" s="1"/>
+      <c r="P36" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36" s="32"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="24"/>
+      <c r="X36" s="34"/>
     </row>
     <row r="37" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -3046,7 +3161,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I37" s="1"/>
@@ -3056,22 +3171,24 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R37" s="1"/>
+      <c r="P37" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R37" s="31" t="s">
+        <v>103</v>
+      </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="24"/>
+      <c r="X37" s="34"/>
     </row>
     <row r="38" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,7 +3197,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I38" s="1"/>
@@ -3090,22 +3207,22 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R38" s="1"/>
+      <c r="P38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R38" s="32"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
-      <c r="X38" s="24"/>
+      <c r="X38" s="34"/>
     </row>
     <row r="39" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
@@ -3114,7 +3231,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I39" s="1"/>
@@ -3124,10 +3241,10 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="24" t="s">
+      <c r="P39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="34" t="s">
         <v>0</v>
       </c>
       <c r="R39" s="1"/>
@@ -3136,10 +3253,10 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="24"/>
+      <c r="X39" s="34"/>
     </row>
     <row r="40" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="1" t="s">
         <v>55</v>
       </c>
@@ -3148,7 +3265,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I40" s="1"/>
@@ -3158,10 +3275,10 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="24" t="s">
+      <c r="P40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="34" t="s">
         <v>0</v>
       </c>
       <c r="R40" s="1"/>
@@ -3170,10 +3287,10 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="24"/>
+      <c r="X40" s="34"/>
     </row>
     <row r="41" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3184,7 +3301,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I41" s="1"/>
@@ -3195,7 +3312,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="24" t="s">
+      <c r="Q41" s="34" t="s">
         <v>0</v>
       </c>
       <c r="R41" s="1"/>
@@ -3206,10 +3323,10 @@
       <c r="W41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="X41" s="24"/>
+      <c r="X41" s="34"/>
     </row>
     <row r="42" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="1" t="s">
         <v>51</v>
       </c>
@@ -3218,7 +3335,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I42" s="1"/>
@@ -3229,7 +3346,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="24" t="s">
+      <c r="Q42" s="34" t="s">
         <v>0</v>
       </c>
       <c r="R42" s="1"/>
@@ -3240,10 +3357,10 @@
       <c r="W42" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="X42" s="24"/>
+      <c r="X42" s="34"/>
     </row>
     <row r="43" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="1" t="s">
         <v>52</v>
       </c>
@@ -3252,7 +3369,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I43" s="1"/>
@@ -3263,7 +3380,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="24" t="s">
+      <c r="Q43" s="34" t="s">
         <v>0</v>
       </c>
       <c r="R43" s="1"/>
@@ -3274,10 +3391,10 @@
       <c r="W43" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="X43" s="24"/>
+      <c r="X43" s="34"/>
     </row>
     <row r="44" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
@@ -3286,7 +3403,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I44" s="1"/>
@@ -3297,7 +3414,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="24" t="s">
+      <c r="Q44" s="34" t="s">
         <v>0</v>
       </c>
       <c r="R44" s="1"/>
@@ -3308,10 +3425,10 @@
       <c r="W44" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="X44" s="24"/>
+      <c r="X44" s="34"/>
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
@@ -3320,7 +3437,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I45" s="1"/>
@@ -3331,7 +3448,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="24" t="s">
+      <c r="Q45" s="34" t="s">
         <v>0</v>
       </c>
       <c r="R45" s="1"/>
@@ -3342,10 +3459,10 @@
       <c r="W45" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="X45" s="24"/>
+      <c r="X45" s="34"/>
     </row>
     <row r="46" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="1" t="s">
         <v>55</v>
       </c>
@@ -3354,7 +3471,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="24" t="s">
+      <c r="H46" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I46" s="1"/>
@@ -3365,7 +3482,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="24" t="s">
+      <c r="Q46" s="34" t="s">
         <v>0</v>
       </c>
       <c r="R46" s="1"/>
@@ -3374,50 +3491,39 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="24"/>
+      <c r="X46" s="34"/>
     </row>
     <row r="47" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="M2:X2"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M9:M10"/>
+  <mergeCells count="33">
+    <mergeCell ref="R37:R38"/>
     <mergeCell ref="A47:X47"/>
     <mergeCell ref="X5:X46"/>
     <mergeCell ref="H29:H46"/>
@@ -3431,9 +3537,25 @@
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="M2:X2"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="V5:V6"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="U11:U13"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="R35:R36"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
